--- a/megamarket.xlsx
+++ b/megamarket.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t xml:space="preserve">ссылка</t>
   </si>
@@ -46,31 +46,37 @@
     <t xml:space="preserve">название магазина</t>
   </si>
   <si>
+    <t xml:space="preserve">Группа 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-space-black-2sim-100040444190/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-2sim-100040444189/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/i-nb-apple-macbook-pro-16-m2-mnw83-100048081857_13/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/noutbuk-apple-macbook-pro-14-14-m3-pro-18-1024gb-space-black-mrx43-us-keyboard-100061721566/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-1024gb-gold-100039500644_46383/#?related_search=iphone%2014%20pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группа 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-esim-100042333250/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/plenka-zashitnaya-gidrogelevaya-krutoff-dlya-xiaomi-redmi-pad-600012652492_1535/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/plenka-zashitnaya-gidrogelevaya-krutoff-dlya-moto-tab-g62-106-2022-600012652503/</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://megamarket.ru/catalog/details/shiny-viatti-205-55-r16-91v-do-240-km-ch-3110017-100023357670_167/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-space-black-2sim-100040444190/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-2sim-100040444189/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/i-nb-apple-macbook-pro-16-m2-mnw83-100048081857_13/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/noutbuk-apple-macbook-pro-14-14-m3-pro-18-1024gb-space-black-mrx43-us-keyboard-100061721566/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-1024gb-gold-100039500644_46383/#?related_search=iphone%2014%20pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-esim-100042333250/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/plenka-zashitnaya-gidrogelevaya-krutoff-dlya-xiaomi-redmi-pad-600012652492_1535/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/plenka-zashitnaya-gidrogelevaya-krutoff-dlya-moto-tab-g62-106-2022-600012652503/</t>
   </si>
   <si>
     <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-2sim-100040444189/#?details_block=prices</t>
@@ -294,15 +300,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="118.7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.47"/>
@@ -316,6 +322,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -339,94 +348,112 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-space-black-2sim-100040444190/"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-2sim-100040444189/"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://megamarket.ru/catalog/details/i-nb-apple-macbook-pro-16-m2-mnw83-100048081857_13/"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://megamarket.ru/catalog/details/noutbuk-apple-macbook-pro-14-14-m3-pro-18-1024gb-space-black-mrx43-us-keyboard-100061721566/"/>
-    <hyperlink ref="A7" r:id="rId5" location="?related_search=iphone%2014%20pro" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-1024gb-gold-100039500644_46383/#?related_search=iphone%2014%20pro"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-esim-100042333250/"/>
-    <hyperlink ref="A9" r:id="rId7" display="https://megamarket.ru/catalog/details/plenka-zashitnaya-gidrogelevaya-krutoff-dlya-xiaomi-redmi-pad-600012652492_1535/"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://megamarket.ru/catalog/details/plenka-zashitnaya-gidrogelevaya-krutoff-dlya-moto-tab-g62-106-2022-600012652503/"/>
-    <hyperlink ref="A11" r:id="rId9" display="https://megamarket.ru/catalog/details/shiny-viatti-205-55-r16-91v-do-240-km-ch-3110017-100023357670_167/"/>
-    <hyperlink ref="A12" r:id="rId10" location="?details_block=prices" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-2sim-100040444189/#?details_block=prices"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-space-black-2sim-100040444190/"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-2sim-100040444189/"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://megamarket.ru/catalog/details/i-nb-apple-macbook-pro-16-m2-mnw83-100048081857_13/"/>
+    <hyperlink ref="A7" r:id="rId4" display="https://megamarket.ru/catalog/details/noutbuk-apple-macbook-pro-14-14-m3-pro-18-1024gb-space-black-mrx43-us-keyboard-100061721566/"/>
+    <hyperlink ref="A8" r:id="rId5" location="?related_search=iphone%2014%20pro" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-1024gb-gold-100039500644_46383/#?related_search=iphone%2014%20pro"/>
+    <hyperlink ref="A11" r:id="rId6" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-esim-100042333250/"/>
+    <hyperlink ref="A12" r:id="rId7" display="https://megamarket.ru/catalog/details/plenka-zashitnaya-gidrogelevaya-krutoff-dlya-xiaomi-redmi-pad-600012652492_1535/"/>
+    <hyperlink ref="A13" r:id="rId8" display="https://megamarket.ru/catalog/details/plenka-zashitnaya-gidrogelevaya-krutoff-dlya-moto-tab-g62-106-2022-600012652503/"/>
+    <hyperlink ref="A14" r:id="rId9" display="https://megamarket.ru/catalog/details/shiny-viatti-205-55-r16-91v-do-240-km-ch-3110017-100023357670_167/"/>
+    <hyperlink ref="A15" r:id="rId10" location="?details_block=prices" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-2sim-100040444189/#?details_block=prices"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/megamarket.xlsx
+++ b/megamarket.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t xml:space="preserve">ссылка</t>
   </si>
@@ -46,40 +46,73 @@
     <t xml:space="preserve">название магазина</t>
   </si>
   <si>
-    <t xml:space="preserve">Группа 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-space-black-2sim-100040444190/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-2sim-100040444189/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/i-nb-apple-macbook-pro-16-m2-mnw83-100048081857_13/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/noutbuk-apple-macbook-pro-14-14-m3-pro-18-1024gb-space-black-mrx43-us-keyboard-100061721566/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-1024gb-gold-100039500644_46383/#?related_search=iphone%2014%20pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Группа 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-esim-100042333250/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/plenka-zashitnaya-gidrogelevaya-krutoff-dlya-xiaomi-redmi-pad-600012652492_1535/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/plenka-zashitnaya-gidrogelevaya-krutoff-dlya-moto-tab-g62-106-2022-600012652503/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/shiny-viatti-205-55-r16-91v-do-240-km-ch-3110017-100023357670_167/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-2sim-100040444189/#?details_block=prices</t>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/i-nb-apple-macbook-air-15-mqkx3-100055644609/#?details_block=prices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с 21 декабря</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплата только онлайн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart Devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с 28 декабря по 30 декабря</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMI 365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter-store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с 23 декабря</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AppleStar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GoodStore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 декабря</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплата только наличными при получении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alikson (ДСМ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с 21 декабря по 23 декабря</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart Room (Доставка силами продавца)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с 22 декабря</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPB-KATALOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">титан-опт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BaiShop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-Smart.shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Gadget Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device King</t>
   </si>
 </sst>
 </file>
@@ -169,11 +202,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -189,112 +222,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -302,8 +229,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -314,7 +241,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="38.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="30.24"/>
   </cols>
   <sheetData>
@@ -355,105 +282,293 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>202182</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>64699</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>6066</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="n">
+        <v>202182</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>64699</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="n">
+        <v>164990</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1650</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="n">
+        <v>169010</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1691</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="n">
+        <v>170615</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1707</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="n">
+        <v>170701</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1708</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="n">
+        <v>173260</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1733</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="n">
+        <v>173123</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="n">
+        <v>178641</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1787</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="n">
+        <v>187417</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>7498</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1" t="n">
+        <v>192640</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1927</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1" t="n">
+        <v>194475</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>62233</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+      <c r="C15" s="0" t="n">
+        <v>195800</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1958</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="n">
+        <v>229265</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>48146</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="n">
+        <v>240000</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>98400</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-space-black-2sim-100040444190/"/>
-    <hyperlink ref="A5" r:id="rId2" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-2sim-100040444189/"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://megamarket.ru/catalog/details/i-nb-apple-macbook-pro-16-m2-mnw83-100048081857_13/"/>
-    <hyperlink ref="A7" r:id="rId4" display="https://megamarket.ru/catalog/details/noutbuk-apple-macbook-pro-14-14-m3-pro-18-1024gb-space-black-mrx43-us-keyboard-100061721566/"/>
-    <hyperlink ref="A8" r:id="rId5" location="?related_search=iphone%2014%20pro" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-1024gb-gold-100039500644_46383/#?related_search=iphone%2014%20pro"/>
-    <hyperlink ref="A11" r:id="rId6" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-esim-100042333250/"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://megamarket.ru/catalog/details/plenka-zashitnaya-gidrogelevaya-krutoff-dlya-xiaomi-redmi-pad-600012652492_1535/"/>
-    <hyperlink ref="A13" r:id="rId8" display="https://megamarket.ru/catalog/details/plenka-zashitnaya-gidrogelevaya-krutoff-dlya-moto-tab-g62-106-2022-600012652503/"/>
-    <hyperlink ref="A14" r:id="rId9" display="https://megamarket.ru/catalog/details/shiny-viatti-205-55-r16-91v-do-240-km-ch-3110017-100023357670_167/"/>
-    <hyperlink ref="A15" r:id="rId10" location="?details_block=prices" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-2sim-100040444189/#?details_block=prices"/>
+    <hyperlink ref="A3" r:id="rId1" location="?details_block=prices" display="https://megamarket.ru/catalog/details/i-nb-apple-macbook-air-15-mqkx3-100055644609/#?details_block=prices"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/megamarket.xlsx
+++ b/megamarket.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="146">
   <si>
     <t xml:space="preserve">ссылка</t>
   </si>
@@ -28,58 +28,511 @@
     <t xml:space="preserve">цена</t>
   </si>
   <si>
-    <t xml:space="preserve">кэшбэк (Оплата Сбером)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кэшбэк (Оплата другими способами)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кэшбэк (С подпиской СберПрайм)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">срок доставки</t>
+    <t xml:space="preserve">кэшбэк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кэшбэк (другие)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кэшбэк (сбер)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">доставка </t>
   </si>
   <si>
     <t xml:space="preserve">форма оплаты</t>
   </si>
   <si>
-    <t xml:space="preserve">название магазина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Группа 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-space-black-2sim-100040444190/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-2sim-100040444189/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/i-nb-apple-macbook-pro-16-m2-mnw83-100048081857_13/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/noutbuk-apple-macbook-pro-14-14-m3-pro-18-1024gb-space-black-mrx43-us-keyboard-100061721566/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-1024gb-gold-100039500644_46383/#?related_search=iphone%2014%20pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Группа 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-esim-100042333250/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/plenka-zashitnaya-gidrogelevaya-krutoff-dlya-xiaomi-redmi-pad-600012652492_1535/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/plenka-zashitnaya-gidrogelevaya-krutoff-dlya-moto-tab-g62-106-2022-600012652503/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/shiny-viatti-205-55-r16-91v-do-240-km-ch-3110017-100023357670_167/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-2sim-100040444189/#?details_block=prices</t>
+    <t xml:space="preserve">магазин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">характеристики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/iphone-15-pro-max/set-na-256-gb/page-1/#?filters=%7B%22OFFER_DUE_DATE_FILTER%22%3A%22DEFAULT_DELIVERY_OFFER_DUE_DATE%22%7D&amp;sort=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_91014/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Версия: Для других стран
+Диагональ экрана, в дюймах: 6.7
+Разрешение экрана, в пикселях: 2796x1290
+Встроенная память, в ГБ: 256
+Оперативная память, в ГБ: 8
+Емкость аккумулятора, в мА-ч: 4441
+Количество основных камер: три
+Год выхода модели: 2023
+Тип дисплея: OLED
+Код товара: 100060024519
+Все характеристики
+iPhone 15 Pro Max
+iPhone 15 Pro Max Apple
+Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_91014/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Версия: Для других стран
+Диагональ экрана, в дюймах: 6.7
+Разрешение экрана, в пикселях: 2796x1290
+Встроенная память, в ГБ: 256
+Оперативная память, в ГБ: 8
+Емкость аккумулятора, в мА-ч: 4441
+Количество основных камер: три
+Год выхода модели: 2023
+Тип дисплея: OLED
+Код товара: 100060024518
+Все характеристики
+iPhone 15 Pro Max
+iPhone 15 Pro Max Apple
+Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_26302/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 марта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплата только наличными при получении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIBDROID (МОСКВА)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-white-titanium-100060024520_91014/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Версия: Для других стран
+Диагональ экрана, в дюймах: 6.7
+Разрешение экрана, в пикселях: 2796x1290
+Встроенная память, в ГБ: 256
+Оперативная память, в ГБ: 8
+Емкость аккумулятора, в мА-ч: 4441
+Количество основных камер: три
+Год выхода модели: 2023
+Тип дисплея: OLED
+Код товара: 100060024520
+Все характеристики
+iPhone 15 Pro Max
+iPhone 15 Pro Max Apple
+Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_46383/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с 28 марта по 4 апреля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customtrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_46383/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Версия: Для других стран
+Диагональ экрана, в дюймах: 6.7
+Разрешение экрана, в пикселях: 2796x1290
+Встроенная память, в ГБ: 256
+Оперативная память, в ГБ: 8
+Емкость аккумулятора, в мА-ч: 4441
+Количество основных камер: три
+Год выхода модели: 2023
+Тип дисплея: OLED
+Код товара: 100060024521
+Все характеристики
+iPhone 15 Pro Max
+iPhone 15 Pro Max Apple
+Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_46383/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-white-titanium-100060024520_46383/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_42982/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с 31 марта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплата только онлайн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chimera Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_42982/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_128964/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с 30 марта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many Phones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_128964/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_42982/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-white-titanium-100060024520_42982/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_89863/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с 6 апреля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gadget Corner (FBS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_89863/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_89863/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-white-titanium-100060024520_89863/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_105352/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mega Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_105352/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_113778/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MegaMart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_128964/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_87418/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BigStore777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-white-titanium-100060024520_87418/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_87418/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_87418/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Версия: Российская версия
+Диагональ экрана, в дюймах: 6.7
+Разрешение экрана, в пикселях: 2796x1290
+Встроенная память, в ГБ: 256
+Емкость аккумулятора, в мА-ч: 4441
+Количество основных камер: три
+Код товара: 100061379464
+Все характеристики
+iPhone 15 Pro Max
+iPhone 15 Pro Max Apple
+Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256-gb-nano-sim-esim-white-titanium-100061379464_113778/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_73458/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iskra_elektronik.store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_61640/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Techno-sopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_61640/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-white-titanium-100060024520_61640/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_61640/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_105352/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_89051/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackApple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_73458/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_89051/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_77981/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AppleBox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-white-titanium-100060024520_105352/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-white-titanium-100060024520_89051/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-white-titanium-100060024520_73458/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_73224/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online24market.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-white-titanium-100060024520_111257/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с 2 апреля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProRegion_MSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-white-titanium-100060024520_73224/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-white-titanium-100060024520_129276/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetMedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_65914/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TitanOpt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_65914/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_129276/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_92266/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Айфон-Стор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_92266/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_92266/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_73029/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MixSeller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_87454/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с 3 апреля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_129276/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_123307/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с 29 марта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlexDevice Пушкино (со склада МегаМаркет)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-white-titanium-100060024520_87454/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_87454/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_65914/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-white-titanium-100060024520_73029/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-white-titanium-100060024520_65914/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_87454/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_123307/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_115920/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gift Smart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-white-titanium-100060024520_115920/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Версия: Для других стран
+Диагональ экрана, в дюймах: 6.7
+Разрешение экрана, в пикселях: 2796x1290
+Встроенная память, в ГБ: 256
+Оперативная память, в ГБ: 8
+Емкость аккумулятора, в мА-ч: 4441
+Количество основных камер: три
+Год выхода модели: 2023
+Тип дисплея: OLED
+Код товара: 100060747398
+Все характеристики
+iPhone 15 Pro Max
+iPhone 15 Pro Max Apple
+Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-2-sim-hk-cn-100060747398_87454/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_115920/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_115920/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_129276/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_86029/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с 28 марта по 31 марта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">telefontut.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_111257/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_94196/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с 4 апреля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РнД Техника</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_69804/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXNOLIVE.COM FBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_69804/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_106629/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clevertech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_131795/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHONEтастика 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_131795/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_69804/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_106629/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_100409/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_90573/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL-VIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-blue-titanium-100060024519_81108/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_90573/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_100409/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_81108/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_131795/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_113778/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-black-titanium-100060024521_41318/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Купи Электронику Здесь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-white-titanium-100060024520_92266/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megamarket.ru/catalog/details/smartfon-apple-iphone-15-pro-max-256gb-natural-titanium-100060024518_50199/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weier.ru</t>
   </si>
 </sst>
 </file>
@@ -89,7 +542,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -119,6 +572,13 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000080"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -164,7 +624,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -175,6 +635,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -300,29 +768,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D70" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J81" activeCellId="0" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="118.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="164"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="106.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="30.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="29.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -346,115 +815,2349 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="1"/>
+      <c r="D2" s="1" t="n">
+        <v>33368</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="1"/>
+      <c r="D3" s="1" t="n">
+        <v>33368</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>129980</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>33368</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C5" s="1"/>
+      <c r="D5" s="1" t="n">
+        <v>33368</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>130290</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>21629</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>130490</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>21629</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>130990</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>33368</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>131590</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>33368</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>131890</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1319</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>131890</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1319</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>131900</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1319</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>131900</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1319</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>131980</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>1320</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>131980</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1320</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>131990</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>1320</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>131990</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>1320</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>131990</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>1320</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>131990</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>1320</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>133100</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1331</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>133100</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>1331</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>133400</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>33368</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>1334</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>133500</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>1335</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>133990</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>1340</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>133990</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>1340</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>133990</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>1340</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>133990</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>1340</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="n">
+        <v>33368</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>134920</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>1350</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>134990</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>1350</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>134990</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>1350</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>134990</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>1350</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>134990</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>1350</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>135000</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>1350</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>135257</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>25955</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>1353</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>135280</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>1353</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>135620</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>1357</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>135710</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>1358</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>136000</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>1360</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>136348</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>1364</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>136470</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>1365</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>136699</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>21629</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>1367</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>136990</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>1370</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>137190</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>33368</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>1372</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>137290</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>1373</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>137570</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>1376</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>137570</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>1376</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>137690</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>1377</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>137761</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>1378</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>137761</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>1378</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>137761</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>1378</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>137800</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>1378</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>137990</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>1380</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>137990</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>1380</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>138000</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>1380</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>138100</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>1381</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>138100</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>1381</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>138180</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>1382</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>138200</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>1382</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>138380</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>1384</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>138400</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>1384</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>138900</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>1389</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>138990</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>1390</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>138990</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>1390</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>138990</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>1390</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B66" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>138990</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>1390</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>138990</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>1390</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>139890</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>1399</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B69" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>139900</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>1399</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B70" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>139990</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>139990</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>140300</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>1403</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B73" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>140300</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>1403</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B74" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>140624</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>1407</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B75" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>140790</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>1408</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>140790</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>1408</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B77" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>140875</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>1409</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B78" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>140875</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>1409</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B79" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="n">
+        <v>33368</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B80" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>153203</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>1533</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B81" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>153203</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>38135</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>1533</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B82" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>153203</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>1533</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="n">
+        <v>21629</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B84" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>153203</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>1533</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B85" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>140990</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>33368</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>1410</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B86" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>141000</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>1410</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B87" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>141244</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>1413</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B88" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>141549</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>1416</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B89" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>141875</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>1419</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C205" s="1"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-space-black-2sim-100040444190/"/>
-    <hyperlink ref="A5" r:id="rId2" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-2sim-100040444189/"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://megamarket.ru/catalog/details/i-nb-apple-macbook-pro-16-m2-mnw83-100048081857_13/"/>
-    <hyperlink ref="A7" r:id="rId4" display="https://megamarket.ru/catalog/details/noutbuk-apple-macbook-pro-14-14-m3-pro-18-1024gb-space-black-mrx43-us-keyboard-100061721566/"/>
-    <hyperlink ref="A8" r:id="rId5" location="?related_search=iphone%2014%20pro" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-1024gb-gold-100039500644_46383/#?related_search=iphone%2014%20pro"/>
-    <hyperlink ref="A11" r:id="rId6" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-esim-100042333250/"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://megamarket.ru/catalog/details/plenka-zashitnaya-gidrogelevaya-krutoff-dlya-xiaomi-redmi-pad-600012652492_1535/"/>
-    <hyperlink ref="A13" r:id="rId8" display="https://megamarket.ru/catalog/details/plenka-zashitnaya-gidrogelevaya-krutoff-dlya-moto-tab-g62-106-2022-600012652503/"/>
-    <hyperlink ref="A14" r:id="rId9" display="https://megamarket.ru/catalog/details/shiny-viatti-205-55-r16-91v-do-240-km-ch-3110017-100023357670_167/"/>
-    <hyperlink ref="A15" r:id="rId10" location="?details_block=prices" display="https://megamarket.ru/catalog/details/smartfon-apple-iphone-14-pro-128gb-gold-2sim-100040444189/#?details_block=prices"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
